--- a/xlsx/title_abbreviations.xlsx
+++ b/xlsx/title_abbreviations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>jr</t>
   </si>
@@ -35,31 +35,37 @@
     <t>widow</t>
   </si>
   <si>
-    <t>hon</t>
-  </si>
-  <si>
-    <t>honorable</t>
-  </si>
-  <si>
-    <t>mrs</t>
-  </si>
-  <si>
-    <t>dr</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>reverend</t>
-  </si>
-  <si>
-    <t>lieut</t>
-  </si>
-  <si>
-    <t>lieutenant</t>
+    <t>Hon</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Honorable</t>
+  </si>
+  <si>
+    <t>Rev</t>
+  </si>
+  <si>
+    <t>Reverend</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Lieut</t>
+  </si>
+  <si>
+    <t>Lieutenant</t>
+  </si>
+  <si>
+    <t>Capt</t>
+  </si>
+  <si>
+    <t>Captain</t>
   </si>
 </sst>
 </file>
@@ -435,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -464,18 +470,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -488,10 +494,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -500,6 +506,14 @@
       </c>
       <c r="B7" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
